--- a/Planilhas/Força trabalho IDADE NACIONAL.xlsx
+++ b/Planilhas/Força trabalho IDADE NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,8 +491,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>355</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,8 +509,10 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>1246</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -527,8 +531,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>339</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,8 +549,10 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>1122</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -563,8 +571,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>294</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -579,8 +589,10 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>943</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -599,8 +611,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>295</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,8 +629,10 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>978</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -635,8 +651,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>279</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +669,10 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>959</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -671,8 +691,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>274</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -687,8 +709,10 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>871</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -707,8 +731,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>239</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -723,8 +749,10 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>834</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -743,8 +771,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>245</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -759,8 +789,10 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>759</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -779,8 +811,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>217</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -795,8 +829,10 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>746</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -815,8 +851,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>208</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -831,8 +869,10 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>706</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -851,8 +891,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>222</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -867,8 +909,10 @@
       <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>698</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -887,8 +931,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>231</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -903,8 +949,10 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>755</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -923,8 +971,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>234</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -939,8 +989,10 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>820</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -959,8 +1011,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>265</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -975,8 +1029,10 @@
       <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>788</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -995,8 +1051,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>241</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1011,8 +1069,10 @@
       <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>824</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1031,8 +1091,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>200</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1047,8 +1109,10 @@
       <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>1006</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1067,8 +1131,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>179</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1083,8 +1149,10 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>966</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1103,8 +1171,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>204</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1119,8 +1189,10 @@
       <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1098</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1139,8 +1211,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>177</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1155,8 +1229,10 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>1060</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1175,8 +1251,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>195</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1191,8 +1269,10 @@
       <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>1176</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1211,8 +1291,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>198</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1227,8 +1309,10 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>1208</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1247,8 +1331,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>215</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1263,8 +1349,10 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="n">
-        <v>1246</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1283,8 +1371,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>225</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1299,8 +1389,10 @@
       <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>1269</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1319,8 +1411,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>232</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1335,8 +1429,10 @@
       <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>1248</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1355,8 +1451,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>224</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1371,8 +1469,10 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="n">
-        <v>1315</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1391,8 +1491,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>215</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1407,8 +1509,10 @@
       <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>1311</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1427,8 +1531,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>216</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1443,8 +1549,10 @@
       <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>1240</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1463,8 +1571,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>242</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1479,8 +1589,10 @@
       <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
-        <v>1288</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1499,8 +1611,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>247</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1515,8 +1629,10 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>1280</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1535,8 +1651,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>242</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1551,8 +1669,10 @@
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>1297</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1571,8 +1691,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>237</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1587,8 +1709,10 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>1214</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1607,8 +1731,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>230</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1623,8 +1749,10 @@
       <c r="G33" t="n">
         <v>4</v>
       </c>
-      <c r="H33" t="n">
-        <v>1197</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1643,8 +1771,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>181</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1659,8 +1789,10 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>1160</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1679,8 +1811,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>194</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1695,8 +1829,10 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>1188</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1715,8 +1851,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>194</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1731,8 +1869,10 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>1096</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1096</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1751,8 +1891,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>175</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1767,8 +1909,10 @@
       <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>987</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1787,8 +1931,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>140</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1803,8 +1949,10 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>906</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1823,8 +1971,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>143</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1839,8 +1989,10 @@
       <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="n">
-        <v>805</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1859,8 +2011,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>124</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1875,8 +2029,10 @@
       <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>849</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1895,8 +2051,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>156</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1911,8 +2069,10 @@
       <c r="G41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>887</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1931,8 +2091,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1197</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1947,8 +2109,10 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>1508</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1967,8 +2131,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1082</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1983,8 +2149,10 @@
       <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>1310</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2003,8 +2171,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>950</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2019,8 +2189,10 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
-        <v>1172</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2039,8 +2211,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>901</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2055,8 +2229,10 @@
       <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
-        <v>1177</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2075,8 +2251,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>905</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2091,8 +2269,10 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>1253</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2111,8 +2291,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>882</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2127,8 +2309,10 @@
       <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="n">
-        <v>1164</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2147,8 +2331,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>824</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2163,8 +2349,10 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="n">
-        <v>1146</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2183,8 +2371,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>796</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2199,8 +2389,10 @@
       <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="n">
-        <v>1097</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2219,8 +2411,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>783</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2235,8 +2429,10 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>1058</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2255,8 +2451,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>752</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2271,8 +2469,10 @@
       <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="n">
-        <v>1013</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2291,8 +2491,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>779</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2307,8 +2509,10 @@
       <c r="G52" t="n">
         <v>3</v>
       </c>
-      <c r="H52" t="n">
-        <v>985</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2327,8 +2531,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>826</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2343,8 +2549,10 @@
       <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="H53" t="n">
-        <v>1024</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2363,8 +2571,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>839</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2379,8 +2589,10 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>1108</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2399,8 +2611,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>928</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2415,8 +2629,10 @@
       <c r="G55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="n">
-        <v>1079</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2435,8 +2651,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>951</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2451,8 +2669,10 @@
       <c r="G56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="n">
-        <v>1065</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2471,8 +2691,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>748</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2487,8 +2709,10 @@
       <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="H57" t="n">
-        <v>1294</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2507,8 +2731,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>717</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2523,8 +2749,10 @@
       <c r="G58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="n">
-        <v>1360</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2543,8 +2771,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>859</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2559,8 +2789,10 @@
       <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
-        <v>1498</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2579,8 +2811,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>872</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2595,8 +2829,10 @@
       <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>1518</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2615,8 +2851,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>982</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2631,8 +2869,10 @@
       <c r="G61" t="n">
         <v>4</v>
       </c>
-      <c r="H61" t="n">
-        <v>1601</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2651,8 +2891,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>928</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2667,8 +2909,10 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="n">
-        <v>1665</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1665</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2687,8 +2931,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>1092</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2703,8 +2949,10 @@
       <c r="G63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="n">
-        <v>1646</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2723,8 +2971,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>1170</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2739,8 +2989,10 @@
       <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="n">
-        <v>1798</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2759,8 +3011,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1255</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1255</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2775,8 +3029,10 @@
       <c r="G65" t="n">
         <v>4</v>
       </c>
-      <c r="H65" t="n">
-        <v>1820</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2795,8 +3051,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>1168</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2811,8 +3069,10 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>1899</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2831,8 +3091,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>1195</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2847,8 +3109,10 @@
       <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="n">
-        <v>1903</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2867,8 +3131,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>1257</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2883,8 +3149,10 @@
       <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="n">
-        <v>1909</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2903,8 +3171,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>1262</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2919,8 +3189,10 @@
       <c r="G69" t="n">
         <v>4</v>
       </c>
-      <c r="H69" t="n">
-        <v>1931</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2939,8 +3211,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1240</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2955,8 +3229,10 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>2022</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2975,8 +3251,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>1385</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2991,8 +3269,10 @@
       <c r="G71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="n">
-        <v>1948</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3011,8 +3291,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>1292</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3027,8 +3309,10 @@
       <c r="G72" t="n">
         <v>3</v>
       </c>
-      <c r="H72" t="n">
-        <v>1886</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1886</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3047,8 +3331,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>1236</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3063,8 +3349,10 @@
       <c r="G73" t="n">
         <v>4</v>
       </c>
-      <c r="H73" t="n">
-        <v>1940</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3083,8 +3371,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>1126</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3099,8 +3389,10 @@
       <c r="G74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>2050</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3119,8 +3411,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>1117</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3135,8 +3429,10 @@
       <c r="G75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="n">
-        <v>1718</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1718</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3155,8 +3451,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1106</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3171,8 +3469,10 @@
       <c r="G76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="n">
-        <v>1653</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3191,8 +3491,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>953</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3207,8 +3509,10 @@
       <c r="G77" t="n">
         <v>4</v>
       </c>
-      <c r="H77" t="n">
-        <v>1603</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3227,8 +3531,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>880</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3243,8 +3549,10 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>1587</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1587</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3263,8 +3571,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>837</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3279,8 +3589,10 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
-        <v>1368</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3299,8 +3611,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>881</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3315,8 +3629,10 @@
       <c r="G80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="n">
-        <v>1387</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3335,8 +3651,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>856</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3351,8 +3669,10 @@
       <c r="G81" t="n">
         <v>4</v>
       </c>
-      <c r="H81" t="n">
-        <v>1381</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3371,8 +3691,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>2808</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2808</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3387,8 +3709,10 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>1946</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3407,8 +3731,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2511</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3423,8 +3749,10 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
-        <v>1656</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1656</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3443,8 +3771,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>2125</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3459,8 +3789,10 @@
       <c r="G84" t="n">
         <v>3</v>
       </c>
-      <c r="H84" t="n">
-        <v>1489</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3479,8 +3811,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2094</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2094</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3495,8 +3829,10 @@
       <c r="G85" t="n">
         <v>4</v>
       </c>
-      <c r="H85" t="n">
-        <v>1499</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3515,8 +3851,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2045</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3531,8 +3869,10 @@
       <c r="G86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>1565</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3551,8 +3891,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>2016</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3567,8 +3909,10 @@
       <c r="G87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="n">
-        <v>1408</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3587,8 +3931,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>1962</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3603,8 +3949,10 @@
       <c r="G88" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="n">
-        <v>1388</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3623,8 +3971,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1899</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3639,8 +3989,10 @@
       <c r="G89" t="n">
         <v>4</v>
       </c>
-      <c r="H89" t="n">
-        <v>1318</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3659,8 +4011,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>1805</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3675,8 +4029,10 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="n">
-        <v>1337</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3695,8 +4051,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>1772</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1772</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3711,8 +4069,10 @@
       <c r="G91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="n">
-        <v>1252</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3731,8 +4091,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>1766</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3747,8 +4109,10 @@
       <c r="G92" t="n">
         <v>3</v>
       </c>
-      <c r="H92" t="n">
-        <v>1243</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3767,8 +4131,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1878</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3783,8 +4149,10 @@
       <c r="G93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="n">
-        <v>1302</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3803,8 +4171,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>1917</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3819,8 +4189,10 @@
       <c r="G94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="n">
-        <v>1358</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3839,8 +4211,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>2122</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3855,8 +4229,10 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="n">
-        <v>1328</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3875,8 +4251,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>2216</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3891,8 +4269,10 @@
       <c r="G96" t="n">
         <v>3</v>
       </c>
-      <c r="H96" t="n">
-        <v>1357</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3911,8 +4291,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>1657</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1657</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3927,8 +4309,10 @@
       <c r="G97" t="n">
         <v>4</v>
       </c>
-      <c r="H97" t="n">
-        <v>1506</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -3947,8 +4331,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>1765</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3963,8 +4349,10 @@
       <c r="G98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>1547</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3983,8 +4371,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>2003</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3999,8 +4389,10 @@
       <c r="G99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="n">
-        <v>1801</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4019,8 +4411,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>2007</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4035,8 +4429,10 @@
       <c r="G100" t="n">
         <v>3</v>
       </c>
-      <c r="H100" t="n">
-        <v>1776</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4055,8 +4451,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>2173</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4071,8 +4469,10 @@
       <c r="G101" t="n">
         <v>4</v>
       </c>
-      <c r="H101" t="n">
-        <v>1917</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4091,8 +4491,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>2144</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4107,8 +4509,10 @@
       <c r="G102" t="n">
         <v>1</v>
       </c>
-      <c r="H102" t="n">
-        <v>2071</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4127,8 +4531,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>2342</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4143,8 +4549,10 @@
       <c r="G103" t="n">
         <v>2</v>
       </c>
-      <c r="H103" t="n">
-        <v>1953</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4163,8 +4571,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>2474</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4179,8 +4589,10 @@
       <c r="G104" t="n">
         <v>3</v>
       </c>
-      <c r="H104" t="n">
-        <v>2113</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4199,8 +4611,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>2556</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2556</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4215,8 +4629,10 @@
       <c r="G105" t="n">
         <v>4</v>
       </c>
-      <c r="H105" t="n">
-        <v>2144</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4235,8 +4651,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>2496</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4251,8 +4669,10 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="n">
-        <v>2208</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4271,8 +4691,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>2655</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4287,8 +4709,10 @@
       <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="n">
-        <v>2310</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2310</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4307,8 +4731,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>2770</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4323,8 +4749,10 @@
       <c r="G108" t="n">
         <v>3</v>
       </c>
-      <c r="H108" t="n">
-        <v>2263</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4343,8 +4771,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>2766</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4359,8 +4789,10 @@
       <c r="G109" t="n">
         <v>4</v>
       </c>
-      <c r="H109" t="n">
-        <v>2198</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4379,8 +4811,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>2687</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4395,8 +4829,10 @@
       <c r="G110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="n">
-        <v>2318</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4415,8 +4851,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>2941</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4431,8 +4869,10 @@
       <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="n">
-        <v>2322</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -4451,8 +4891,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>2812</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4467,8 +4909,10 @@
       <c r="G112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="n">
-        <v>2230</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -4487,8 +4931,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>2735</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2735</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4503,8 +4949,10 @@
       <c r="G113" t="n">
         <v>4</v>
       </c>
-      <c r="H113" t="n">
-        <v>2155</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2155</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -4523,8 +4971,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>2630</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2630</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4539,8 +4989,10 @@
       <c r="G114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="n">
-        <v>2389</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2389</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -4559,8 +5011,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>2508</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4575,8 +5029,10 @@
       <c r="G115" t="n">
         <v>2</v>
       </c>
-      <c r="H115" t="n">
-        <v>2263</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4595,8 +5051,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>2264</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4611,8 +5069,10 @@
       <c r="G116" t="n">
         <v>3</v>
       </c>
-      <c r="H116" t="n">
-        <v>2176</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -4631,8 +5091,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>2082</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4647,8 +5109,10 @@
       <c r="G117" t="n">
         <v>4</v>
       </c>
-      <c r="H117" t="n">
-        <v>2096</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -4667,8 +5131,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>1901</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4683,8 +5149,10 @@
       <c r="G118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="n">
-        <v>2063</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4703,8 +5171,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>1977</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4719,8 +5189,10 @@
       <c r="G119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="n">
-        <v>1938</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -4739,8 +5211,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>2031</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4755,8 +5229,10 @@
       <c r="G120" t="n">
         <v>3</v>
       </c>
-      <c r="H120" t="n">
-        <v>1895</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -4775,8 +5251,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>2033</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4791,8 +5269,10 @@
       <c r="G121" t="n">
         <v>4</v>
       </c>
-      <c r="H121" t="n">
-        <v>1802</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4811,8 +5291,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>2288</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2288</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4827,8 +5309,10 @@
       <c r="G122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="n">
-        <v>1504</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -4847,8 +5331,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>2081</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2081</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4863,8 +5349,10 @@
       <c r="G123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="n">
-        <v>1274</v>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -4883,8 +5371,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1765</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4899,8 +5389,10 @@
       <c r="G124" t="n">
         <v>3</v>
       </c>
-      <c r="H124" t="n">
-        <v>1154</v>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -4919,8 +5411,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>1731</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4935,8 +5429,10 @@
       <c r="G125" t="n">
         <v>4</v>
       </c>
-      <c r="H125" t="n">
-        <v>1132</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -4955,8 +5451,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>1797</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4971,8 +5469,10 @@
       <c r="G126" t="n">
         <v>1</v>
       </c>
-      <c r="H126" t="n">
-        <v>1164</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -4991,8 +5491,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>1725</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5007,8 +5509,10 @@
       <c r="G127" t="n">
         <v>2</v>
       </c>
-      <c r="H127" t="n">
-        <v>1084</v>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5027,8 +5531,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>1612</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5043,8 +5549,10 @@
       <c r="G128" t="n">
         <v>3</v>
       </c>
-      <c r="H128" t="n">
-        <v>1047</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5063,8 +5571,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>1616</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5079,8 +5589,10 @@
       <c r="G129" t="n">
         <v>4</v>
       </c>
-      <c r="H129" t="n">
-        <v>1005</v>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5099,8 +5611,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>1520</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5115,8 +5629,10 @@
       <c r="G130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="n">
-        <v>999</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5135,8 +5651,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>1482</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1482</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5151,8 +5669,10 @@
       <c r="G131" t="n">
         <v>2</v>
       </c>
-      <c r="H131" t="n">
-        <v>898</v>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5171,8 +5691,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>1458</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5187,8 +5709,10 @@
       <c r="G132" t="n">
         <v>3</v>
       </c>
-      <c r="H132" t="n">
-        <v>899</v>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -5207,8 +5731,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>1503</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5223,8 +5749,10 @@
       <c r="G133" t="n">
         <v>4</v>
       </c>
-      <c r="H133" t="n">
-        <v>929</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5243,8 +5771,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>1559</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5259,8 +5789,10 @@
       <c r="G134" t="n">
         <v>1</v>
       </c>
-      <c r="H134" t="n">
-        <v>1000</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -5279,8 +5811,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>1695</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5295,8 +5829,10 @@
       <c r="G135" t="n">
         <v>2</v>
       </c>
-      <c r="H135" t="n">
-        <v>977</v>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5315,8 +5851,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>1872</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5331,8 +5869,10 @@
       <c r="G136" t="n">
         <v>3</v>
       </c>
-      <c r="H136" t="n">
-        <v>1016</v>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -5351,8 +5891,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>1309</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5367,8 +5909,10 @@
       <c r="G137" t="n">
         <v>4</v>
       </c>
-      <c r="H137" t="n">
-        <v>1170</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -5387,8 +5931,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>1371</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5403,8 +5949,10 @@
       <c r="G138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="n">
-        <v>1201</v>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -5423,8 +5971,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>1557</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5439,8 +5989,10 @@
       <c r="G139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="n">
-        <v>1412</v>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -5459,8 +6011,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>1554</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1554</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5475,8 +6029,10 @@
       <c r="G140" t="n">
         <v>3</v>
       </c>
-      <c r="H140" t="n">
-        <v>1336</v>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -5495,8 +6051,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>1717</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5511,8 +6069,10 @@
       <c r="G141" t="n">
         <v>4</v>
       </c>
-      <c r="H141" t="n">
-        <v>1509</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -5531,8 +6091,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>1773</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5547,8 +6109,10 @@
       <c r="G142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="n">
-        <v>1619</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5567,8 +6131,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>1912</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5583,8 +6149,10 @@
       <c r="G143" t="n">
         <v>2</v>
       </c>
-      <c r="H143" t="n">
-        <v>1592</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5603,8 +6171,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>2097</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5619,8 +6189,10 @@
       <c r="G144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="n">
-        <v>1719</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1719</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -5639,8 +6211,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>2136</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5655,8 +6229,10 @@
       <c r="G145" t="n">
         <v>4</v>
       </c>
-      <c r="H145" t="n">
-        <v>1795</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1795</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -5675,8 +6251,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>2035</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5691,8 +6269,10 @@
       <c r="G146" t="n">
         <v>1</v>
       </c>
-      <c r="H146" t="n">
-        <v>1780</v>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -5711,8 +6291,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>2140</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5727,8 +6309,10 @@
       <c r="G147" t="n">
         <v>2</v>
       </c>
-      <c r="H147" t="n">
-        <v>1900</v>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5747,8 +6331,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>2286</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2286</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5763,8 +6349,10 @@
       <c r="G148" t="n">
         <v>3</v>
       </c>
-      <c r="H148" t="n">
-        <v>1849</v>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -5783,8 +6371,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>2308</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5799,8 +6389,10 @@
       <c r="G149" t="n">
         <v>4</v>
       </c>
-      <c r="H149" t="n">
-        <v>1801</v>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -5819,8 +6411,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>2282</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5835,8 +6429,10 @@
       <c r="G150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="n">
-        <v>1956</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -5855,8 +6451,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>2458</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5871,8 +6469,10 @@
       <c r="G151" t="n">
         <v>2</v>
       </c>
-      <c r="H151" t="n">
-        <v>2038</v>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -5891,8 +6491,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>2390</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2390</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5907,8 +6509,10 @@
       <c r="G152" t="n">
         <v>3</v>
       </c>
-      <c r="H152" t="n">
-        <v>1994</v>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -5927,8 +6531,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>2305</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5943,8 +6549,10 @@
       <c r="G153" t="n">
         <v>4</v>
       </c>
-      <c r="H153" t="n">
-        <v>1899</v>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -5963,8 +6571,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>2256</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5979,8 +6589,10 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="n">
-        <v>2117</v>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -5999,8 +6611,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>2387</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6015,8 +6629,10 @@
       <c r="G155" t="n">
         <v>2</v>
       </c>
-      <c r="H155" t="n">
-        <v>2204</v>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -6035,8 +6651,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>2273</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6051,8 +6669,10 @@
       <c r="G156" t="n">
         <v>3</v>
       </c>
-      <c r="H156" t="n">
-        <v>2137</v>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -6071,8 +6691,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>1910</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6087,8 +6709,10 @@
       <c r="G157" t="n">
         <v>4</v>
       </c>
-      <c r="H157" t="n">
-        <v>1991</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -6107,8 +6731,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>1808</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6123,8 +6749,10 @@
       <c r="G158" t="n">
         <v>1</v>
       </c>
-      <c r="H158" t="n">
-        <v>1949</v>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -6143,8 +6771,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>1878</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6159,8 +6789,10 @@
       <c r="G159" t="n">
         <v>2</v>
       </c>
-      <c r="H159" t="n">
-        <v>1879</v>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -6179,8 +6811,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>1960</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6195,8 +6829,10 @@
       <c r="G160" t="n">
         <v>3</v>
       </c>
-      <c r="H160" t="n">
-        <v>1767</v>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -6215,8 +6851,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>2036</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6231,8 +6869,10 @@
       <c r="G161" t="n">
         <v>4</v>
       </c>
-      <c r="H161" t="n">
-        <v>1734</v>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -6251,8 +6891,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>365</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6267,8 +6909,10 @@
       <c r="G162" t="n">
         <v>1</v>
       </c>
-      <c r="H162" t="n">
-        <v>482</v>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -6287,8 +6931,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>329</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6303,8 +6949,10 @@
       <c r="G163" t="n">
         <v>2</v>
       </c>
-      <c r="H163" t="n">
-        <v>355</v>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -6323,8 +6971,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>270</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6339,8 +6989,10 @@
       <c r="G164" t="n">
         <v>3</v>
       </c>
-      <c r="H164" t="n">
-        <v>331</v>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -6359,8 +7011,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>256</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6375,8 +7029,10 @@
       <c r="G165" t="n">
         <v>4</v>
       </c>
-      <c r="H165" t="n">
-        <v>283</v>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -6395,8 +7051,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>247</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6411,8 +7069,10 @@
       <c r="G166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="n">
-        <v>308</v>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -6431,8 +7091,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>238</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6447,8 +7109,10 @@
       <c r="G167" t="n">
         <v>2</v>
       </c>
-      <c r="H167" t="n">
-        <v>295</v>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -6467,8 +7131,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>233</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6483,8 +7149,10 @@
       <c r="G168" t="n">
         <v>3</v>
       </c>
-      <c r="H168" t="n">
-        <v>271</v>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -6503,8 +7171,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>224</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6519,8 +7189,10 @@
       <c r="G169" t="n">
         <v>4</v>
       </c>
-      <c r="H169" t="n">
-        <v>241</v>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -6539,8 +7211,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>207</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6555,8 +7229,10 @@
       <c r="G170" t="n">
         <v>1</v>
       </c>
-      <c r="H170" t="n">
-        <v>226</v>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -6575,8 +7251,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D171" t="n">
-        <v>209</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6591,8 +7269,10 @@
       <c r="G171" t="n">
         <v>2</v>
       </c>
-      <c r="H171" t="n">
-        <v>221</v>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -6611,8 +7291,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>217</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6627,8 +7309,10 @@
       <c r="G172" t="n">
         <v>3</v>
       </c>
-      <c r="H172" t="n">
-        <v>246</v>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -6647,8 +7331,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D173" t="n">
-        <v>259</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6663,8 +7349,10 @@
       <c r="G173" t="n">
         <v>4</v>
       </c>
-      <c r="H173" t="n">
-        <v>239</v>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -6683,8 +7371,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>232</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6699,8 +7389,10 @@
       <c r="G174" t="n">
         <v>1</v>
       </c>
-      <c r="H174" t="n">
-        <v>216</v>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -6719,8 +7411,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>241</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6735,8 +7429,10 @@
       <c r="G175" t="n">
         <v>2</v>
       </c>
-      <c r="H175" t="n">
-        <v>243</v>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -6755,8 +7451,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>254</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6771,8 +7469,10 @@
       <c r="G176" t="n">
         <v>3</v>
       </c>
-      <c r="H176" t="n">
-        <v>261</v>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -6791,8 +7491,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>180</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6807,8 +7509,10 @@
       <c r="G177" t="n">
         <v>4</v>
       </c>
-      <c r="H177" t="n">
-        <v>295</v>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -6827,8 +7531,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>167</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6843,8 +7549,10 @@
       <c r="G178" t="n">
         <v>1</v>
       </c>
-      <c r="H178" t="n">
-        <v>303</v>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -6863,8 +7571,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D179" t="n">
-        <v>189</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6879,8 +7589,10 @@
       <c r="G179" t="n">
         <v>2</v>
       </c>
-      <c r="H179" t="n">
-        <v>380</v>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -6899,8 +7611,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D180" t="n">
-        <v>183</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6915,8 +7629,10 @@
       <c r="G180" t="n">
         <v>3</v>
       </c>
-      <c r="H180" t="n">
-        <v>368</v>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -6935,8 +7651,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>201</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6951,8 +7669,10 @@
       <c r="G181" t="n">
         <v>4</v>
       </c>
-      <c r="H181" t="n">
-        <v>407</v>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -6971,8 +7691,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D182" t="n">
-        <v>204</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6987,8 +7709,10 @@
       <c r="G182" t="n">
         <v>1</v>
       </c>
-      <c r="H182" t="n">
-        <v>445</v>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -7007,8 +7731,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>247</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7023,8 +7749,10 @@
       <c r="G183" t="n">
         <v>2</v>
       </c>
-      <c r="H183" t="n">
-        <v>488</v>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -7043,8 +7771,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>292</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7059,8 +7789,10 @@
       <c r="G184" t="n">
         <v>3</v>
       </c>
-      <c r="H184" t="n">
-        <v>529</v>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -7079,8 +7811,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D185" t="n">
-        <v>280</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7095,8 +7829,10 @@
       <c r="G185" t="n">
         <v>4</v>
       </c>
-      <c r="H185" t="n">
-        <v>535</v>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -7115,8 +7851,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>280</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7131,8 +7869,10 @@
       <c r="G186" t="n">
         <v>1</v>
       </c>
-      <c r="H186" t="n">
-        <v>510</v>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -7151,8 +7891,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D187" t="n">
-        <v>310</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7167,8 +7909,10 @@
       <c r="G187" t="n">
         <v>2</v>
       </c>
-      <c r="H187" t="n">
-        <v>647</v>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -7187,8 +7931,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D188" t="n">
-        <v>341</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7203,8 +7949,10 @@
       <c r="G188" t="n">
         <v>3</v>
       </c>
-      <c r="H188" t="n">
-        <v>621</v>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -7223,8 +7971,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>337</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7239,8 +7989,10 @@
       <c r="G189" t="n">
         <v>4</v>
       </c>
-      <c r="H189" t="n">
-        <v>584</v>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -7259,8 +8011,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>349</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7275,8 +8029,10 @@
       <c r="G190" t="n">
         <v>1</v>
       </c>
-      <c r="H190" t="n">
-        <v>592</v>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -7295,8 +8051,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>373</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7311,8 +8069,10 @@
       <c r="G191" t="n">
         <v>2</v>
       </c>
-      <c r="H191" t="n">
-        <v>651</v>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -7331,8 +8091,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>370</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7347,8 +8109,10 @@
       <c r="G192" t="n">
         <v>3</v>
       </c>
-      <c r="H192" t="n">
-        <v>596</v>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -7367,8 +8131,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>351</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7383,8 +8149,10 @@
       <c r="G193" t="n">
         <v>4</v>
       </c>
-      <c r="H193" t="n">
-        <v>571</v>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -7403,8 +8171,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>329</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7419,8 +8189,10 @@
       <c r="G194" t="n">
         <v>1</v>
       </c>
-      <c r="H194" t="n">
-        <v>607</v>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -7439,8 +8211,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>363</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7455,8 +8229,10 @@
       <c r="G195" t="n">
         <v>2</v>
       </c>
-      <c r="H195" t="n">
-        <v>714</v>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -7475,8 +8251,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>356</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7491,8 +8269,10 @@
       <c r="G196" t="n">
         <v>3</v>
       </c>
-      <c r="H196" t="n">
-        <v>711</v>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -7511,8 +8291,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>309</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7527,8 +8309,10 @@
       <c r="G197" t="n">
         <v>4</v>
       </c>
-      <c r="H197" t="n">
-        <v>628</v>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -7547,8 +8331,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>284</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7563,8 +8349,10 @@
       <c r="G198" t="n">
         <v>1</v>
       </c>
-      <c r="H198" t="n">
-        <v>626</v>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -7583,8 +8371,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>297</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7599,8 +8389,10 @@
       <c r="G199" t="n">
         <v>2</v>
       </c>
-      <c r="H199" t="n">
-        <v>581</v>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -7619,8 +8411,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>329</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7635,8 +8429,10 @@
       <c r="G200" t="n">
         <v>3</v>
       </c>
-      <c r="H200" t="n">
-        <v>611</v>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -7655,8 +8451,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>355</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7671,8 +8469,10 @@
       <c r="G201" t="n">
         <v>4</v>
       </c>
-      <c r="H201" t="n">
-        <v>615</v>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
       </c>
     </row>
   </sheetData>
